--- a/difensori 2019.xlsx
+++ b/difensori 2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan\OneDrive\Documenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan\OneDrive\Desktop\git shared\Pytone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3C3C32-5792-4C3A-9236-2984C5EA06E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B274586-8084-41AD-99D5-18095B06BBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F49E5E7-765F-44D1-A425-838C670168D2}"/>
   </bookViews>
@@ -2944,7 +2944,7 @@
     <xf numFmtId="16" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3284,11 +3284,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AB710C-0332-41AB-94B8-C4F29773BD20}">
   <dimension ref="A1:BT212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="BX1" activeCellId="8" sqref="H1:H1048576 CH1:CH1048576 CI1:CI1048576 CJ1:CJ1048576 BY1:BY1048576 BZ1:BZ1048576 CA1:CA1048576 BW1:BW1048576 BX1:BX1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BD204" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="BM211" sqref="BM211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="9.81640625" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="64" max="64" width="15.90625" customWidth="1"/>
+    <col min="67" max="67" width="3.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
@@ -3720,11 +3729,11 @@
         <v>735</v>
       </c>
       <c r="BS2">
-        <f>SUM(BD2)+(BE2)</f>
+        <f t="shared" ref="BS2:BS65" si="0">SUM(BD2)+(BE2)</f>
         <v>4</v>
       </c>
       <c r="BT2">
-        <f>SUM(BP2)+(BQ2)</f>
+        <f t="shared" ref="BT2:BT65" si="1">SUM(BP2)+(BQ2)</f>
         <v>17</v>
       </c>
     </row>
@@ -3940,11 +3949,11 @@
         <v>743</v>
       </c>
       <c r="BS3">
-        <f>SUM(BD3)+(BE3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BT3">
-        <f>SUM(BP3)+(BQ3)</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -4160,11 +4169,11 @@
         <v>348</v>
       </c>
       <c r="BS4">
-        <f>SUM(BD4)+(BE4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT4">
-        <f>SUM(BP4)+(BQ4)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -4380,11 +4389,11 @@
         <v>756</v>
       </c>
       <c r="BS5">
-        <f>SUM(BD5)+(BE5)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BT5">
-        <f>SUM(BP5)+(BQ5)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -4600,11 +4609,11 @@
         <v>582</v>
       </c>
       <c r="BS6">
-        <f>SUM(BD6)+(BE6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BT6">
-        <f>SUM(BP6)+(BQ6)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
@@ -4820,11 +4829,11 @@
         <v>391</v>
       </c>
       <c r="BS7">
-        <f>SUM(BD7)+(BE7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BT7">
-        <f>SUM(BP7)+(BQ7)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -5038,11 +5047,11 @@
       </c>
       <c r="BR8" s="7"/>
       <c r="BS8">
-        <f>SUM(BD8)+(BE8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT8">
-        <f>SUM(BP8)+(BQ8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5254,11 +5263,11 @@
         <v>15</v>
       </c>
       <c r="BS9">
-        <f>SUM(BD9)+(BE9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT9">
-        <f>SUM(BP9)+(BQ9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5474,11 +5483,11 @@
         <v>542</v>
       </c>
       <c r="BS10">
-        <f>SUM(BD10)+(BE10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BT10">
-        <f>SUM(BP10)+(BQ10)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -5694,11 +5703,11 @@
         <v>632</v>
       </c>
       <c r="BS11">
-        <f>SUM(BD11)+(BE11)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="BT11">
-        <f>SUM(BP11)+(BQ11)</f>
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
     </row>
@@ -5914,11 +5923,11 @@
         <v>563</v>
       </c>
       <c r="BS12">
-        <f>SUM(BD12)+(BE12)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BT12">
-        <f>SUM(BP12)+(BQ12)</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
@@ -6134,11 +6143,11 @@
         <v>670</v>
       </c>
       <c r="BS13">
-        <f>SUM(BD13)+(BE13)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BT13">
-        <f>SUM(BP13)+(BQ13)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -6354,11 +6363,11 @@
         <v>810</v>
       </c>
       <c r="BS14">
-        <f>SUM(BD14)+(BE14)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BT14">
-        <f>SUM(BP14)+(BQ14)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
@@ -6570,11 +6579,11 @@
       </c>
       <c r="BR15" s="7"/>
       <c r="BS15">
-        <f>SUM(BD15)+(BE15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT15">
-        <f>SUM(BP15)+(BQ15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6790,11 +6799,11 @@
         <v>437</v>
       </c>
       <c r="BS16">
-        <f>SUM(BD16)+(BE16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT16">
-        <f>SUM(BP16)+(BQ16)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -7010,11 +7019,11 @@
         <v>753</v>
       </c>
       <c r="BS17">
-        <f>SUM(BD17)+(BE17)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BT17">
-        <f>SUM(BP17)+(BQ17)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
@@ -7230,11 +7239,11 @@
         <v>801</v>
       </c>
       <c r="BS18">
-        <f>SUM(BD18)+(BE18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BT18">
-        <f>SUM(BP18)+(BQ18)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -7450,11 +7459,11 @@
         <v>664</v>
       </c>
       <c r="BS19">
-        <f>SUM(BD19)+(BE19)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BT19">
-        <f>SUM(BP19)+(BQ19)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
@@ -7670,11 +7679,11 @@
         <v>537</v>
       </c>
       <c r="BS20">
-        <f>SUM(BD20)+(BE20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BT20">
-        <f>SUM(BP20)+(BQ20)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -7890,11 +7899,11 @@
         <v>436</v>
       </c>
       <c r="BS21">
-        <f>SUM(BD21)+(BE21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT21">
-        <f>SUM(BP21)+(BQ21)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -8110,11 +8119,11 @@
         <v>346</v>
       </c>
       <c r="BS22">
-        <f>SUM(BD22)+(BE22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BT22">
-        <f>SUM(BP22)+(BQ22)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -8324,11 +8333,11 @@
       </c>
       <c r="BR23" s="7"/>
       <c r="BS23">
-        <f>SUM(BD23)+(BE23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT23">
-        <f>SUM(BP23)+(BQ23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8544,11 +8553,11 @@
         <v>797</v>
       </c>
       <c r="BS24">
-        <f>SUM(BD24)+(BE24)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BT24">
-        <f>SUM(BP24)+(BQ24)</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
@@ -8764,11 +8773,11 @@
         <v>811</v>
       </c>
       <c r="BS25">
-        <f>SUM(BD25)+(BE25)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BT25">
-        <f>SUM(BP25)+(BQ25)</f>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
     </row>
@@ -8984,11 +8993,11 @@
         <v>797</v>
       </c>
       <c r="BS26">
-        <f>SUM(BD26)+(BE26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BT26">
-        <f>SUM(BP26)+(BQ26)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -9204,11 +9213,11 @@
         <v>812</v>
       </c>
       <c r="BS27">
-        <f>SUM(BD27)+(BE27)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="BT27">
-        <f>SUM(BP27)+(BQ27)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -9424,11 +9433,11 @@
         <v>434</v>
       </c>
       <c r="BS28">
-        <f>SUM(BD28)+(BE28)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BT28">
-        <f>SUM(BP28)+(BQ28)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -9642,11 +9651,11 @@
       </c>
       <c r="BR29" s="7"/>
       <c r="BS29">
-        <f>SUM(BD29)+(BE29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT29">
-        <f>SUM(BP29)+(BQ29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9862,11 +9871,11 @@
         <v>475</v>
       </c>
       <c r="BS30">
-        <f>SUM(BD30)+(BE30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BT30">
-        <f>SUM(BP30)+(BQ30)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -10082,11 +10091,11 @@
         <v>395</v>
       </c>
       <c r="BS31">
-        <f>SUM(BD31)+(BE31)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BT31">
-        <f>SUM(BP31)+(BQ31)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -10302,11 +10311,11 @@
         <v>753</v>
       </c>
       <c r="BS32">
-        <f>SUM(BD32)+(BE32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BT32">
-        <f>SUM(BP32)+(BQ32)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -10522,11 +10531,11 @@
         <v>427</v>
       </c>
       <c r="BS33">
-        <f>SUM(BD33)+(BE33)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BT33">
-        <f>SUM(BP33)+(BQ33)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -10742,11 +10751,11 @@
         <v>813</v>
       </c>
       <c r="BS34">
-        <f>SUM(BD34)+(BE34)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BT34">
-        <f>SUM(BP34)+(BQ34)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
@@ -10962,11 +10971,11 @@
         <v>814</v>
       </c>
       <c r="BS35">
-        <f>SUM(BD35)+(BE35)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BT35">
-        <f>SUM(BP35)+(BQ35)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
@@ -11174,11 +11183,11 @@
       </c>
       <c r="BR36" s="7"/>
       <c r="BS36">
-        <f>SUM(BD36)+(BE36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT36">
-        <f>SUM(BP36)+(BQ36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11394,11 +11403,11 @@
         <v>452</v>
       </c>
       <c r="BS37">
-        <f>SUM(BD37)+(BE37)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BT37">
-        <f>SUM(BP37)+(BQ37)</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
@@ -11614,11 +11623,11 @@
         <v>622</v>
       </c>
       <c r="BS38">
-        <f>SUM(BD38)+(BE38)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BT38">
-        <f>SUM(BP38)+(BQ38)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -11834,11 +11843,11 @@
         <v>815</v>
       </c>
       <c r="BS39">
-        <f>SUM(BD39)+(BE39)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BT39">
-        <f>SUM(BP39)+(BQ39)</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
@@ -12054,11 +12063,11 @@
         <v>513</v>
       </c>
       <c r="BS40">
-        <f>SUM(BD40)+(BE40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT40">
-        <f>SUM(BP40)+(BQ40)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -12274,11 +12283,11 @@
         <v>816</v>
       </c>
       <c r="BS41">
-        <f>SUM(BD41)+(BE41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT41">
-        <f>SUM(BP41)+(BQ41)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -12494,11 +12503,11 @@
         <v>418</v>
       </c>
       <c r="BS42">
-        <f>SUM(BD42)+(BE42)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="BT42">
-        <f>SUM(BP42)+(BQ42)</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
@@ -12714,11 +12723,11 @@
         <v>817</v>
       </c>
       <c r="BS43">
-        <f>SUM(BD43)+(BE43)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BT43">
-        <f>SUM(BP43)+(BQ43)</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
@@ -12934,11 +12943,11 @@
         <v>752</v>
       </c>
       <c r="BS44">
-        <f>SUM(BD44)+(BE44)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="BT44">
-        <f>SUM(BP44)+(BQ44)</f>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
     </row>
@@ -13154,11 +13163,11 @@
         <v>407</v>
       </c>
       <c r="BS45">
-        <f>SUM(BD45)+(BE45)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BT45">
-        <f>SUM(BP45)+(BQ45)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -13374,11 +13383,11 @@
         <v>437</v>
       </c>
       <c r="BS46">
-        <f>SUM(BD46)+(BE46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BT46">
-        <f>SUM(BP46)+(BQ46)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -13594,11 +13603,11 @@
         <v>775</v>
       </c>
       <c r="BS47">
-        <f>SUM(BD47)+(BE47)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="BT47">
-        <f>SUM(BP47)+(BQ47)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
@@ -13810,11 +13819,11 @@
       </c>
       <c r="BR48" s="7"/>
       <c r="BS48">
-        <f>SUM(BD48)+(BE48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT48">
-        <f>SUM(BP48)+(BQ48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14024,11 +14033,11 @@
       </c>
       <c r="BR49" s="7"/>
       <c r="BS49">
-        <f>SUM(BD49)+(BE49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT49">
-        <f>SUM(BP49)+(BQ49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14244,11 +14253,11 @@
         <v>432</v>
       </c>
       <c r="BS50">
-        <f>SUM(BD50)+(BE50)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BT50">
-        <f>SUM(BP50)+(BQ50)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
@@ -14464,11 +14473,11 @@
         <v>818</v>
       </c>
       <c r="BS51">
-        <f>SUM(BD51)+(BE51)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BT51">
-        <f>SUM(BP51)+(BQ51)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -14684,11 +14693,11 @@
         <v>458</v>
       </c>
       <c r="BS52">
-        <f>SUM(BD52)+(BE52)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BT52">
-        <f>SUM(BP52)+(BQ52)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -14904,11 +14913,11 @@
         <v>819</v>
       </c>
       <c r="BS53">
-        <f>SUM(BD53)+(BE53)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BT53">
-        <f>SUM(BP53)+(BQ53)</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -15124,11 +15133,11 @@
         <v>518</v>
       </c>
       <c r="BS54">
-        <f>SUM(BD54)+(BE54)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BT54">
-        <f>SUM(BP54)+(BQ54)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -15344,11 +15353,11 @@
         <v>820</v>
       </c>
       <c r="BS55">
-        <f>SUM(BD55)+(BE55)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BT55">
-        <f>SUM(BP55)+(BQ55)</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
@@ -15564,11 +15573,11 @@
         <v>437</v>
       </c>
       <c r="BS56">
-        <f>SUM(BD56)+(BE56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BT56">
-        <f>SUM(BP56)+(BQ56)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -15784,11 +15793,11 @@
         <v>814</v>
       </c>
       <c r="BS57">
-        <f>SUM(BD57)+(BE57)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BT57">
-        <f>SUM(BP57)+(BQ57)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
@@ -16004,11 +16013,11 @@
         <v>592</v>
       </c>
       <c r="BS58">
-        <f>SUM(BD58)+(BE58)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BT58">
-        <f>SUM(BP58)+(BQ58)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
@@ -16224,11 +16233,11 @@
         <v>582</v>
       </c>
       <c r="BS59">
-        <f>SUM(BD59)+(BE59)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BT59">
-        <f>SUM(BP59)+(BQ59)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -16444,11 +16453,11 @@
         <v>587</v>
       </c>
       <c r="BS60">
-        <f>SUM(BD60)+(BE60)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BT60">
-        <f>SUM(BP60)+(BQ60)</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
@@ -16664,11 +16673,11 @@
         <v>821</v>
       </c>
       <c r="BS61">
-        <f>SUM(BD61)+(BE61)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BT61">
-        <f>SUM(BP61)+(BQ61)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -16884,11 +16893,11 @@
         <v>822</v>
       </c>
       <c r="BS62">
-        <f>SUM(BD62)+(BE62)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="BT62">
-        <f>SUM(BP62)+(BQ62)</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
@@ -17104,11 +17113,11 @@
         <v>761</v>
       </c>
       <c r="BS63">
-        <f>SUM(BD63)+(BE63)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BT63">
-        <f>SUM(BP63)+(BQ63)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -17324,11 +17333,11 @@
         <v>823</v>
       </c>
       <c r="BS64">
-        <f>SUM(BD64)+(BE64)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BT64">
-        <f>SUM(BP64)+(BQ64)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -17542,11 +17551,11 @@
         <v>15</v>
       </c>
       <c r="BS65">
-        <f>SUM(BD65)+(BE65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BT65">
-        <f>SUM(BP65)+(BQ65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -17762,11 +17771,11 @@
         <v>437</v>
       </c>
       <c r="BS66">
-        <f>SUM(BD66)+(BE66)</f>
+        <f t="shared" ref="BS66:BS129" si="2">SUM(BD66)+(BE66)</f>
         <v>0</v>
       </c>
       <c r="BT66">
-        <f>SUM(BP66)+(BQ66)</f>
+        <f t="shared" ref="BT66:BT129" si="3">SUM(BP66)+(BQ66)</f>
         <v>26</v>
       </c>
     </row>
@@ -17982,11 +17991,11 @@
         <v>792</v>
       </c>
       <c r="BS67">
-        <f>SUM(BD67)+(BE67)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BT67">
-        <f>SUM(BP67)+(BQ67)</f>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
     </row>
@@ -18202,11 +18211,11 @@
         <v>739</v>
       </c>
       <c r="BS68">
-        <f>SUM(BD68)+(BE68)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BT68">
-        <f>SUM(BP68)+(BQ68)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
@@ -18422,11 +18431,11 @@
         <v>449</v>
       </c>
       <c r="BS69">
-        <f>SUM(BD69)+(BE69)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT69">
-        <f>SUM(BP69)+(BQ69)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -18636,11 +18645,11 @@
       </c>
       <c r="BR70" s="7"/>
       <c r="BS70">
-        <f>SUM(BD70)+(BE70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT70">
-        <f>SUM(BP70)+(BQ70)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -18856,11 +18865,11 @@
         <v>747</v>
       </c>
       <c r="BS71">
-        <f>SUM(BD71)+(BE71)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BT71">
-        <f>SUM(BP71)+(BQ71)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
@@ -19068,11 +19077,11 @@
       </c>
       <c r="BR72" s="7"/>
       <c r="BS72">
-        <f>SUM(BD72)+(BE72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT72">
-        <f>SUM(BP72)+(BQ72)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -19288,11 +19297,11 @@
         <v>736</v>
       </c>
       <c r="BS73">
-        <f>SUM(BD73)+(BE73)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BT73">
-        <f>SUM(BP73)+(BQ73)</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
     </row>
@@ -19508,11 +19517,11 @@
         <v>436</v>
       </c>
       <c r="BS74">
-        <f>SUM(BD74)+(BE74)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BT74">
-        <f>SUM(BP74)+(BQ74)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -19728,11 +19737,11 @@
         <v>824</v>
       </c>
       <c r="BS75">
-        <f>SUM(BD75)+(BE75)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BT75">
-        <f>SUM(BP75)+(BQ75)</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
@@ -19948,11 +19957,11 @@
         <v>756</v>
       </c>
       <c r="BS76">
-        <f>SUM(BD76)+(BE76)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BT76">
-        <f>SUM(BP76)+(BQ76)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
@@ -20168,11 +20177,11 @@
         <v>367</v>
       </c>
       <c r="BS77">
-        <f>SUM(BD77)+(BE77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT77">
-        <f>SUM(BP77)+(BQ77)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -20388,11 +20397,11 @@
         <v>548</v>
       </c>
       <c r="BS78">
-        <f>SUM(BD78)+(BE78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BT78">
-        <f>SUM(BP78)+(BQ78)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
@@ -20608,11 +20617,11 @@
         <v>736</v>
       </c>
       <c r="BS79">
-        <f>SUM(BD79)+(BE79)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BT79">
-        <f>SUM(BP79)+(BQ79)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
     </row>
@@ -20828,11 +20837,11 @@
         <v>471</v>
       </c>
       <c r="BS80">
-        <f>SUM(BD80)+(BE80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BT80">
-        <f>SUM(BP80)+(BQ80)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -21048,11 +21057,11 @@
         <v>705</v>
       </c>
       <c r="BS81">
-        <f>SUM(BD81)+(BE81)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT81">
-        <f>SUM(BP81)+(BQ81)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -21268,11 +21277,11 @@
         <v>825</v>
       </c>
       <c r="BS82">
-        <f>SUM(BD82)+(BE82)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BT82">
-        <f>SUM(BP82)+(BQ82)</f>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
     </row>
@@ -21488,11 +21497,11 @@
         <v>737</v>
       </c>
       <c r="BS83">
-        <f>SUM(BD83)+(BE83)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BT83">
-        <f>SUM(BP83)+(BQ83)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
@@ -21708,11 +21717,11 @@
         <v>826</v>
       </c>
       <c r="BS84">
-        <f>SUM(BD84)+(BE84)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BT84">
-        <f>SUM(BP84)+(BQ84)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -21928,11 +21937,11 @@
         <v>827</v>
       </c>
       <c r="BS85">
-        <f>SUM(BD85)+(BE85)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BT85">
-        <f>SUM(BP85)+(BQ85)</f>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
     </row>
@@ -22148,11 +22157,11 @@
         <v>764</v>
       </c>
       <c r="BS86">
-        <f>SUM(BD86)+(BE86)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="BT86">
-        <f>SUM(BP86)+(BQ86)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -22368,11 +22377,11 @@
         <v>828</v>
       </c>
       <c r="BS87">
-        <f>SUM(BD87)+(BE87)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="BT87">
-        <f>SUM(BP87)+(BQ87)</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
     </row>
@@ -22588,11 +22597,11 @@
         <v>209</v>
       </c>
       <c r="BS88">
-        <f>SUM(BD88)+(BE88)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BT88">
-        <f>SUM(BP88)+(BQ88)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
@@ -22808,11 +22817,11 @@
         <v>734</v>
       </c>
       <c r="BS89">
-        <f>SUM(BD89)+(BE89)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BT89">
-        <f>SUM(BP89)+(BQ89)</f>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
     </row>
@@ -23028,11 +23037,11 @@
         <v>396</v>
       </c>
       <c r="BS90">
-        <f>SUM(BD90)+(BE90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BT90">
-        <f>SUM(BP90)+(BQ90)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -23248,11 +23257,11 @@
         <v>756</v>
       </c>
       <c r="BS91">
-        <f>SUM(BD91)+(BE91)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="BT91">
-        <f>SUM(BP91)+(BQ91)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
@@ -23468,11 +23477,11 @@
         <v>363</v>
       </c>
       <c r="BS92">
-        <f>SUM(BD92)+(BE92)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT92">
-        <f>SUM(BP92)+(BQ92)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -23686,11 +23695,11 @@
         <v>367</v>
       </c>
       <c r="BS93">
-        <f>SUM(BD93)+(BE93)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT93">
-        <f>SUM(BP93)+(BQ93)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23906,11 +23915,11 @@
         <v>391</v>
       </c>
       <c r="BS94">
-        <f>SUM(BD94)+(BE94)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="BT94">
-        <f>SUM(BP94)+(BQ94)</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
     </row>
@@ -24126,11 +24135,11 @@
         <v>219</v>
       </c>
       <c r="BS95">
-        <f>SUM(BD95)+(BE95)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT95">
-        <f>SUM(BP95)+(BQ95)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -24346,11 +24355,11 @@
         <v>398</v>
       </c>
       <c r="BS96">
-        <f>SUM(BD96)+(BE96)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT96">
-        <f>SUM(BP96)+(BQ96)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -24566,11 +24575,11 @@
         <v>730</v>
       </c>
       <c r="BS97">
-        <f>SUM(BD97)+(BE97)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT97">
-        <f>SUM(BP97)+(BQ97)</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
@@ -24786,11 +24795,11 @@
         <v>479</v>
       </c>
       <c r="BS98">
-        <f>SUM(BD98)+(BE98)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BT98">
-        <f>SUM(BP98)+(BQ98)</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -25006,11 +25015,11 @@
         <v>394</v>
       </c>
       <c r="BS99">
-        <f>SUM(BD99)+(BE99)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BT99">
-        <f>SUM(BP99)+(BQ99)</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
@@ -25226,11 +25235,11 @@
         <v>573</v>
       </c>
       <c r="BS100">
-        <f>SUM(BD100)+(BE100)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BT100">
-        <f>SUM(BP100)+(BQ100)</f>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
     </row>
@@ -25446,11 +25455,11 @@
         <v>395</v>
       </c>
       <c r="BS101">
-        <f>SUM(BD101)+(BE101)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BT101">
-        <f>SUM(BP101)+(BQ101)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -25666,11 +25675,11 @@
         <v>829</v>
       </c>
       <c r="BS102">
-        <f>SUM(BD102)+(BE102)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BT102">
-        <f>SUM(BP102)+(BQ102)</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
     </row>
@@ -25886,11 +25895,11 @@
         <v>830</v>
       </c>
       <c r="BS103">
-        <f>SUM(BD103)+(BE103)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BT103">
-        <f>SUM(BP103)+(BQ103)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
     </row>
@@ -26106,11 +26115,11 @@
         <v>831</v>
       </c>
       <c r="BS104">
-        <f>SUM(BD104)+(BE104)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="BT104">
-        <f>SUM(BP104)+(BQ104)</f>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
     </row>
@@ -26326,11 +26335,11 @@
         <v>795</v>
       </c>
       <c r="BS105">
-        <f>SUM(BD105)+(BE105)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BT105">
-        <f>SUM(BP105)+(BQ105)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
@@ -26546,11 +26555,11 @@
         <v>275</v>
       </c>
       <c r="BS106">
-        <f>SUM(BD106)+(BE106)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BT106">
-        <f>SUM(BP106)+(BQ106)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -26766,11 +26775,11 @@
         <v>753</v>
       </c>
       <c r="BS107">
-        <f>SUM(BD107)+(BE107)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT107">
-        <f>SUM(BP107)+(BQ107)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -26986,11 +26995,11 @@
         <v>695</v>
       </c>
       <c r="BS108">
-        <f>SUM(BD108)+(BE108)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BT108">
-        <f>SUM(BP108)+(BQ108)</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
@@ -27206,11 +27215,11 @@
         <v>229</v>
       </c>
       <c r="BS109">
-        <f>SUM(BD109)+(BE109)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BT109">
-        <f>SUM(BP109)+(BQ109)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -27426,11 +27435,11 @@
         <v>616</v>
       </c>
       <c r="BS110">
-        <f>SUM(BD110)+(BE110)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BT110">
-        <f>SUM(BP110)+(BQ110)</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
     </row>
@@ -27646,11 +27655,11 @@
         <v>832</v>
       </c>
       <c r="BS111">
-        <f>SUM(BD111)+(BE111)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BT111">
-        <f>SUM(BP111)+(BQ111)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
@@ -27862,11 +27871,11 @@
         <v>15</v>
       </c>
       <c r="BS112">
-        <f>SUM(BD112)+(BE112)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT112">
-        <f>SUM(BP112)+(BQ112)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28082,11 +28091,11 @@
         <v>800</v>
       </c>
       <c r="BS113">
-        <f>SUM(BD113)+(BE113)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="BT113">
-        <f>SUM(BP113)+(BQ113)</f>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
     </row>
@@ -28302,11 +28311,11 @@
         <v>491</v>
       </c>
       <c r="BS114">
-        <f>SUM(BD114)+(BE114)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BT114">
-        <f>SUM(BP114)+(BQ114)</f>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
     </row>
@@ -28522,11 +28531,11 @@
         <v>363</v>
       </c>
       <c r="BS115">
-        <f>SUM(BD115)+(BE115)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT115">
-        <f>SUM(BP115)+(BQ115)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -28742,11 +28751,11 @@
         <v>635</v>
       </c>
       <c r="BS116">
-        <f>SUM(BD116)+(BE116)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="BT116">
-        <f>SUM(BP116)+(BQ116)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -28962,11 +28971,11 @@
         <v>833</v>
       </c>
       <c r="BS117">
-        <f>SUM(BD117)+(BE117)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT117">
-        <f>SUM(BP117)+(BQ117)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -29182,11 +29191,11 @@
         <v>361</v>
       </c>
       <c r="BS118">
-        <f>SUM(BD118)+(BE118)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BT118">
-        <f>SUM(BP118)+(BQ118)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
     </row>
@@ -29402,11 +29411,11 @@
         <v>834</v>
       </c>
       <c r="BS119">
-        <f>SUM(BD119)+(BE119)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BT119">
-        <f>SUM(BP119)+(BQ119)</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
     </row>
@@ -29622,11 +29631,11 @@
         <v>367</v>
       </c>
       <c r="BS120">
-        <f>SUM(BD120)+(BE120)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT120">
-        <f>SUM(BP120)+(BQ120)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -29840,11 +29849,11 @@
         <v>405</v>
       </c>
       <c r="BS121">
-        <f>SUM(BD121)+(BE121)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BT121">
-        <f>SUM(BP121)+(BQ121)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -30060,11 +30069,11 @@
         <v>567</v>
       </c>
       <c r="BS122">
-        <f>SUM(BD122)+(BE122)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BT122">
-        <f>SUM(BP122)+(BQ122)</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
     </row>
@@ -30280,11 +30289,11 @@
         <v>582</v>
       </c>
       <c r="BS123">
-        <f>SUM(BD123)+(BE123)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT123">
-        <f>SUM(BP123)+(BQ123)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -30500,11 +30509,11 @@
         <v>803</v>
       </c>
       <c r="BS124">
-        <f>SUM(BD124)+(BE124)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT124">
-        <f>SUM(BP124)+(BQ124)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
@@ -30720,11 +30729,11 @@
         <v>829</v>
       </c>
       <c r="BS125">
-        <f>SUM(BD125)+(BE125)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT125">
-        <f>SUM(BP125)+(BQ125)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
@@ -30940,11 +30949,11 @@
         <v>461</v>
       </c>
       <c r="BS126">
-        <f>SUM(BD126)+(BE126)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BT126">
-        <f>SUM(BP126)+(BQ126)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
     </row>
@@ -31160,11 +31169,11 @@
         <v>835</v>
       </c>
       <c r="BS127">
-        <f>SUM(BD127)+(BE127)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BT127">
-        <f>SUM(BP127)+(BQ127)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -31380,11 +31389,11 @@
         <v>744</v>
       </c>
       <c r="BS128">
-        <f>SUM(BD128)+(BE128)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BT128">
-        <f>SUM(BP128)+(BQ128)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
@@ -31600,11 +31609,11 @@
         <v>745</v>
       </c>
       <c r="BS129">
-        <f>SUM(BD129)+(BE129)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BT129">
-        <f>SUM(BP129)+(BQ129)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -31820,11 +31829,11 @@
         <v>773</v>
       </c>
       <c r="BS130">
-        <f>SUM(BD130)+(BE130)</f>
+        <f t="shared" ref="BS130:BS193" si="4">SUM(BD130)+(BE130)</f>
         <v>4</v>
       </c>
       <c r="BT130">
-        <f>SUM(BP130)+(BQ130)</f>
+        <f t="shared" ref="BT130:BT193" si="5">SUM(BP130)+(BQ130)</f>
         <v>27</v>
       </c>
     </row>
@@ -32040,11 +32049,11 @@
         <v>799</v>
       </c>
       <c r="BS131">
-        <f>SUM(BD131)+(BE131)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BT131">
-        <f>SUM(BP131)+(BQ131)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
     </row>
@@ -32260,11 +32269,11 @@
         <v>836</v>
       </c>
       <c r="BS132">
-        <f>SUM(BD132)+(BE132)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="BT132">
-        <f>SUM(BP132)+(BQ132)</f>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
     </row>
@@ -32480,11 +32489,11 @@
         <v>395</v>
       </c>
       <c r="BS133">
-        <f>SUM(BD133)+(BE133)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BT133">
-        <f>SUM(BP133)+(BQ133)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
@@ -32700,11 +32709,11 @@
         <v>733</v>
       </c>
       <c r="BS134">
-        <f>SUM(BD134)+(BE134)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BT134">
-        <f>SUM(BP134)+(BQ134)</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
     </row>
@@ -32920,11 +32929,11 @@
         <v>109</v>
       </c>
       <c r="BS135">
-        <f>SUM(BD135)+(BE135)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BT135">
-        <f>SUM(BP135)+(BQ135)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
     </row>
@@ -33140,11 +33149,11 @@
         <v>363</v>
       </c>
       <c r="BS136">
-        <f>SUM(BD136)+(BE136)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BT136">
-        <f>SUM(BP136)+(BQ136)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -33360,11 +33369,11 @@
         <v>767</v>
       </c>
       <c r="BS137">
-        <f>SUM(BD137)+(BE137)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="BT137">
-        <f>SUM(BP137)+(BQ137)</f>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
     </row>
@@ -33574,11 +33583,11 @@
       </c>
       <c r="BR138" s="7"/>
       <c r="BS138">
-        <f>SUM(BD138)+(BE138)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT138">
-        <f>SUM(BP138)+(BQ138)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -33794,11 +33803,11 @@
         <v>391</v>
       </c>
       <c r="BS139">
-        <f>SUM(BD139)+(BE139)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BT139">
-        <f>SUM(BP139)+(BQ139)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -34014,11 +34023,11 @@
         <v>437</v>
       </c>
       <c r="BS140">
-        <f>SUM(BD140)+(BE140)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BT140">
-        <f>SUM(BP140)+(BQ140)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
@@ -34234,11 +34243,11 @@
         <v>794</v>
       </c>
       <c r="BS141">
-        <f>SUM(BD141)+(BE141)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BT141">
-        <f>SUM(BP141)+(BQ141)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
@@ -34454,11 +34463,11 @@
         <v>794</v>
       </c>
       <c r="BS142">
-        <f>SUM(BD142)+(BE142)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BT142">
-        <f>SUM(BP142)+(BQ142)</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
     </row>
@@ -34674,11 +34683,11 @@
         <v>550</v>
       </c>
       <c r="BS143">
-        <f>SUM(BD143)+(BE143)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BT143">
-        <f>SUM(BP143)+(BQ143)</f>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
     </row>
@@ -34894,11 +34903,11 @@
         <v>802</v>
       </c>
       <c r="BS144">
-        <f>SUM(BD144)+(BE144)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="BT144">
-        <f>SUM(BP144)+(BQ144)</f>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
     </row>
@@ -35114,11 +35123,11 @@
         <v>837</v>
       </c>
       <c r="BS145">
-        <f>SUM(BD145)+(BE145)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BT145">
-        <f>SUM(BP145)+(BQ145)</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
     </row>
@@ -35334,11 +35343,11 @@
         <v>411</v>
       </c>
       <c r="BS146">
-        <f>SUM(BD146)+(BE146)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BT146">
-        <f>SUM(BP146)+(BQ146)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -35554,11 +35563,11 @@
         <v>823</v>
       </c>
       <c r="BS147">
-        <f>SUM(BD147)+(BE147)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BT147">
-        <f>SUM(BP147)+(BQ147)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
@@ -35774,11 +35783,11 @@
         <v>745</v>
       </c>
       <c r="BS148">
-        <f>SUM(BD148)+(BE148)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BT148">
-        <f>SUM(BP148)+(BQ148)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
@@ -35994,11 +36003,11 @@
         <v>730</v>
       </c>
       <c r="BS149">
-        <f>SUM(BD149)+(BE149)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BT149">
-        <f>SUM(BP149)+(BQ149)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -36214,11 +36223,11 @@
         <v>524</v>
       </c>
       <c r="BS150">
-        <f>SUM(BD150)+(BE150)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BT150">
-        <f>SUM(BP150)+(BQ150)</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
     </row>
@@ -36434,11 +36443,11 @@
         <v>361</v>
       </c>
       <c r="BS151">
-        <f>SUM(BD151)+(BE151)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="BT151">
-        <f>SUM(BP151)+(BQ151)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
@@ -36654,11 +36663,11 @@
         <v>831</v>
       </c>
       <c r="BS152">
-        <f>SUM(BD152)+(BE152)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BT152">
-        <f>SUM(BP152)+(BQ152)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -36874,11 +36883,11 @@
         <v>838</v>
       </c>
       <c r="BS153">
-        <f>SUM(BD153)+(BE153)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BT153">
-        <f>SUM(BP153)+(BQ153)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -37094,11 +37103,11 @@
         <v>839</v>
       </c>
       <c r="BS154">
-        <f>SUM(BD154)+(BE154)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="BT154">
-        <f>SUM(BP154)+(BQ154)</f>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
     </row>
@@ -37312,11 +37321,11 @@
         <v>367</v>
       </c>
       <c r="BS155">
-        <f>SUM(BD155)+(BE155)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT155">
-        <f>SUM(BP155)+(BQ155)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -37532,11 +37541,11 @@
         <v>798</v>
       </c>
       <c r="BS156">
-        <f>SUM(BD156)+(BE156)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BT156">
-        <f>SUM(BP156)+(BQ156)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -37748,11 +37757,11 @@
       </c>
       <c r="BR157" s="7"/>
       <c r="BS157">
-        <f>SUM(BD157)+(BE157)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT157">
-        <f>SUM(BP157)+(BQ157)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -37966,11 +37975,11 @@
         <v>367</v>
       </c>
       <c r="BS158">
-        <f>SUM(BD158)+(BE158)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BT158">
-        <f>SUM(BP158)+(BQ158)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -38182,11 +38191,11 @@
       </c>
       <c r="BR159" s="7"/>
       <c r="BS159">
-        <f>SUM(BD159)+(BE159)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT159">
-        <f>SUM(BP159)+(BQ159)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -38402,11 +38411,11 @@
         <v>437</v>
       </c>
       <c r="BS160">
-        <f>SUM(BD160)+(BE160)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="BT160">
-        <f>SUM(BP160)+(BQ160)</f>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
     </row>
@@ -38622,11 +38631,11 @@
         <v>794</v>
       </c>
       <c r="BS161">
-        <f>SUM(BD161)+(BE161)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="BT161">
-        <f>SUM(BP161)+(BQ161)</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
     </row>
@@ -38842,11 +38851,11 @@
         <v>394</v>
       </c>
       <c r="BS162">
-        <f>SUM(BD162)+(BE162)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BT162">
-        <f>SUM(BP162)+(BQ162)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -39062,11 +39071,11 @@
         <v>523</v>
       </c>
       <c r="BS163">
-        <f>SUM(BD163)+(BE163)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BT163">
-        <f>SUM(BP163)+(BQ163)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
@@ -39282,11 +39291,11 @@
         <v>673</v>
       </c>
       <c r="BS164">
-        <f>SUM(BD164)+(BE164)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BT164">
-        <f>SUM(BP164)+(BQ164)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
     </row>
@@ -39500,11 +39509,11 @@
         <v>436</v>
       </c>
       <c r="BS165">
-        <f>SUM(BD165)+(BE165)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT165">
-        <f>SUM(BP165)+(BQ165)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -39718,11 +39727,11 @@
         <v>367</v>
       </c>
       <c r="BS166">
-        <f>SUM(BD166)+(BE166)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT166">
-        <f>SUM(BP166)+(BQ166)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -39936,11 +39945,11 @@
         <v>15</v>
       </c>
       <c r="BS167">
-        <f>SUM(BD167)+(BE167)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT167">
-        <f>SUM(BP167)+(BQ167)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -40156,11 +40165,11 @@
         <v>338</v>
       </c>
       <c r="BS168">
-        <f>SUM(BD168)+(BE168)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BT168">
-        <f>SUM(BP168)+(BQ168)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
@@ -40376,11 +40385,11 @@
         <v>436</v>
       </c>
       <c r="BS169">
-        <f>SUM(BD169)+(BE169)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT169">
-        <f>SUM(BP169)+(BQ169)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -40596,11 +40605,11 @@
         <v>823</v>
       </c>
       <c r="BS170">
-        <f>SUM(BD170)+(BE170)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BT170">
-        <f>SUM(BP170)+(BQ170)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
     </row>
@@ -40816,11 +40825,11 @@
         <v>733</v>
       </c>
       <c r="BS171">
-        <f>SUM(BD171)+(BE171)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BT171">
-        <f>SUM(BP171)+(BQ171)</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
     </row>
@@ -41036,11 +41045,11 @@
         <v>616</v>
       </c>
       <c r="BS172">
-        <f>SUM(BD172)+(BE172)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BT172">
-        <f>SUM(BP172)+(BQ172)</f>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
     </row>
@@ -41256,11 +41265,11 @@
         <v>679</v>
       </c>
       <c r="BS173">
-        <f>SUM(BD173)+(BE173)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="BT173">
-        <f>SUM(BP173)+(BQ173)</f>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
     </row>
@@ -41470,11 +41479,11 @@
       </c>
       <c r="BR174" s="7"/>
       <c r="BS174">
-        <f>SUM(BD174)+(BE174)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT174">
-        <f>SUM(BP174)+(BQ174)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -41690,11 +41699,11 @@
         <v>712</v>
       </c>
       <c r="BS175">
-        <f>SUM(BD175)+(BE175)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BT175">
-        <f>SUM(BP175)+(BQ175)</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
     </row>
@@ -41910,11 +41919,11 @@
         <v>541</v>
       </c>
       <c r="BS176">
-        <f>SUM(BD176)+(BE176)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BT176">
-        <f>SUM(BP176)+(BQ176)</f>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
     </row>
@@ -42130,11 +42139,11 @@
         <v>347</v>
       </c>
       <c r="BS177">
-        <f>SUM(BD177)+(BE177)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BT177">
-        <f>SUM(BP177)+(BQ177)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
@@ -42350,11 +42359,11 @@
         <v>695</v>
       </c>
       <c r="BS178">
-        <f>SUM(BD178)+(BE178)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="BT178">
-        <f>SUM(BP178)+(BQ178)</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
     </row>
@@ -42570,11 +42579,11 @@
         <v>632</v>
       </c>
       <c r="BS179">
-        <f>SUM(BD179)+(BE179)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BT179">
-        <f>SUM(BP179)+(BQ179)</f>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
     </row>
@@ -42790,11 +42799,11 @@
         <v>436</v>
       </c>
       <c r="BS180">
-        <f>SUM(BD180)+(BE180)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BT180">
-        <f>SUM(BP180)+(BQ180)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -43010,11 +43019,11 @@
         <v>394</v>
       </c>
       <c r="BS181">
-        <f>SUM(BD181)+(BE181)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BT181">
-        <f>SUM(BP181)+(BQ181)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -43230,11 +43239,11 @@
         <v>747</v>
       </c>
       <c r="BS182">
-        <f>SUM(BD182)+(BE182)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BT182">
-        <f>SUM(BP182)+(BQ182)</f>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
     </row>
@@ -43450,11 +43459,11 @@
         <v>363</v>
       </c>
       <c r="BS183">
-        <f>SUM(BD183)+(BE183)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BT183">
-        <f>SUM(BP183)+(BQ183)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -43670,11 +43679,11 @@
         <v>840</v>
       </c>
       <c r="BS184">
-        <f>SUM(BD184)+(BE184)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BT184">
-        <f>SUM(BP184)+(BQ184)</f>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
     </row>
@@ -43890,11 +43899,11 @@
         <v>437</v>
       </c>
       <c r="BS185">
-        <f>SUM(BD185)+(BE185)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BT185">
-        <f>SUM(BP185)+(BQ185)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -44108,11 +44117,11 @@
         <v>363</v>
       </c>
       <c r="BS186">
-        <f>SUM(BD186)+(BE186)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BT186">
-        <f>SUM(BP186)+(BQ186)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -44328,11 +44337,11 @@
         <v>841</v>
       </c>
       <c r="BS187">
-        <f>SUM(BD187)+(BE187)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="BT187">
-        <f>SUM(BP187)+(BQ187)</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
     </row>
@@ -44548,11 +44557,11 @@
         <v>842</v>
       </c>
       <c r="BS188">
-        <f>SUM(BD188)+(BE188)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BT188">
-        <f>SUM(BP188)+(BQ188)</f>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
     </row>
@@ -44768,11 +44777,11 @@
         <v>843</v>
       </c>
       <c r="BS189">
-        <f>SUM(BD189)+(BE189)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BT189">
-        <f>SUM(BP189)+(BQ189)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
     </row>
@@ -44988,11 +44997,11 @@
         <v>704</v>
       </c>
       <c r="BS190">
-        <f>SUM(BD190)+(BE190)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BT190">
-        <f>SUM(BP190)+(BQ190)</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
     </row>
@@ -45208,11 +45217,11 @@
         <v>273</v>
       </c>
       <c r="BS191">
-        <f>SUM(BD191)+(BE191)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BT191">
-        <f>SUM(BP191)+(BQ191)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
@@ -45428,11 +45437,11 @@
         <v>844</v>
       </c>
       <c r="BS192">
-        <f>SUM(BD192)+(BE192)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BT192">
-        <f>SUM(BP192)+(BQ192)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
     </row>
@@ -45648,11 +45657,11 @@
         <v>411</v>
       </c>
       <c r="BS193">
-        <f>SUM(BD193)+(BE193)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BT193">
-        <f>SUM(BP193)+(BQ193)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -45868,11 +45877,11 @@
         <v>801</v>
       </c>
       <c r="BS194">
-        <f>SUM(BD194)+(BE194)</f>
+        <f t="shared" ref="BS194:BS212" si="6">SUM(BD194)+(BE194)</f>
         <v>8</v>
       </c>
       <c r="BT194">
-        <f>SUM(BP194)+(BQ194)</f>
+        <f t="shared" ref="BT194:BT212" si="7">SUM(BP194)+(BQ194)</f>
         <v>27</v>
       </c>
     </row>
@@ -46088,11 +46097,11 @@
         <v>845</v>
       </c>
       <c r="BS195">
-        <f>SUM(BD195)+(BE195)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="BT195">
-        <f>SUM(BP195)+(BQ195)</f>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
     </row>
@@ -46308,11 +46317,11 @@
         <v>846</v>
       </c>
       <c r="BS196">
-        <f>SUM(BD196)+(BE196)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="BT196">
-        <f>SUM(BP196)+(BQ196)</f>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
     </row>
@@ -46528,11 +46537,11 @@
         <v>491</v>
       </c>
       <c r="BS197">
-        <f>SUM(BD197)+(BE197)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="BT197">
-        <f>SUM(BP197)+(BQ197)</f>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
     </row>
@@ -46748,11 +46757,11 @@
         <v>847</v>
       </c>
       <c r="BS198">
-        <f>SUM(BD198)+(BE198)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="BT198">
-        <f>SUM(BP198)+(BQ198)</f>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
     </row>
@@ -46968,11 +46977,11 @@
         <v>367</v>
       </c>
       <c r="BS199">
-        <f>SUM(BD199)+(BE199)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT199">
-        <f>SUM(BP199)+(BQ199)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -47188,11 +47197,11 @@
         <v>848</v>
       </c>
       <c r="BS200">
-        <f>SUM(BD200)+(BE200)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="BT200">
-        <f>SUM(BP200)+(BQ200)</f>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
     </row>
@@ -47408,11 +47417,11 @@
         <v>398</v>
       </c>
       <c r="BS201">
-        <f>SUM(BD201)+(BE201)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT201">
-        <f>SUM(BP201)+(BQ201)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -47628,11 +47637,11 @@
         <v>452</v>
       </c>
       <c r="BS202">
-        <f>SUM(BD202)+(BE202)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="BT202">
-        <f>SUM(BP202)+(BQ202)</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
     </row>
@@ -47844,11 +47853,11 @@
       </c>
       <c r="BR203" s="7"/>
       <c r="BS203">
-        <f>SUM(BD203)+(BE203)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT203">
-        <f>SUM(BP203)+(BQ203)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -48064,11 +48073,11 @@
         <v>796</v>
       </c>
       <c r="BS204">
-        <f>SUM(BD204)+(BE204)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="BT204">
-        <f>SUM(BP204)+(BQ204)</f>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
     </row>
@@ -48265,9 +48274,7 @@
       <c r="BL205" s="7">
         <v>0</v>
       </c>
-      <c r="BM205" s="5">
-        <v>1</v>
-      </c>
+      <c r="BM205" s="5"/>
       <c r="BN205" s="7">
         <v>0</v>
       </c>
@@ -48284,11 +48291,11 @@
         <v>395</v>
       </c>
       <c r="BS205">
-        <f>SUM(BD205)+(BE205)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BT205">
-        <f>SUM(BP205)+(BQ205)</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
     </row>
@@ -48504,11 +48511,11 @@
         <v>436</v>
       </c>
       <c r="BS206">
-        <f>SUM(BD206)+(BE206)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BT206">
-        <f>SUM(BP206)+(BQ206)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -48724,11 +48731,11 @@
         <v>665</v>
       </c>
       <c r="BS207">
-        <f>SUM(BD207)+(BE207)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BT207">
-        <f>SUM(BP207)+(BQ207)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -48944,11 +48951,11 @@
         <v>513</v>
       </c>
       <c r="BS208">
-        <f>SUM(BD208)+(BE208)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BT208">
-        <f>SUM(BP208)+(BQ208)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -49164,11 +49171,11 @@
         <v>391</v>
       </c>
       <c r="BS209">
-        <f>SUM(BD209)+(BE209)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="BT209">
-        <f>SUM(BP209)+(BQ209)</f>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
     </row>
@@ -49384,11 +49391,11 @@
         <v>15</v>
       </c>
       <c r="BS210">
-        <f>SUM(BD210)+(BE210)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT210">
-        <f>SUM(BP210)+(BQ210)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -49604,11 +49611,11 @@
         <v>793</v>
       </c>
       <c r="BS211">
-        <f>SUM(BD211)+(BE211)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="BT211">
-        <f>SUM(BP211)+(BQ211)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -49824,11 +49831,11 @@
         <v>367</v>
       </c>
       <c r="BS212">
-        <f>SUM(BD212)+(BE212)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BT212">
-        <f>SUM(BP212)+(BQ212)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
